--- a/CashFlow/EIX_cashflow.xlsx
+++ b/CashFlow/EIX_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1590000000.0</v>
+        <v>-56000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1537000000.0</v>
+        <v>-43000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1117000000.0</v>
+        <v>-39000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>711000000.0</v>
+        <v>-53000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>310000000.0</v>
+        <v>-52000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-83000000.0</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>65000000.0</v>
+        <v>6930000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>87000000.0</v>
+        <v>6782000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1759000000.0</v>
+        <v>6554000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
